--- a/new_vms_data.xlsx
+++ b/new_vms_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylorsullivan/Zerto-Reports/Zerto Billing Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C7C935-1F77-7844-A0B8-70D34858DDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4DF5E1-10AD-1E4F-BE34-CE5EC7BF3EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="68800" windowHeight="26100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34400" windowHeight="26100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3580" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3590" uniqueCount="437">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1344,16 +1344,28 @@
     <t>Month</t>
   </si>
   <si>
-    <t>Total vCPUs</t>
-  </si>
-  <si>
-    <t>Total CPU Used (Mhz)</t>
-  </si>
-  <si>
     <t>2024</t>
   </si>
   <si>
     <t>October</t>
+  </si>
+  <si>
+    <t>Total vCPU</t>
+  </si>
+  <si>
+    <t>Total Active Memory</t>
+  </si>
+  <si>
+    <t>Total Consumed Memory</t>
+  </si>
+  <si>
+    <t>Total Memory</t>
+  </si>
+  <si>
+    <t>Total Provisioned Storage</t>
+  </si>
+  <si>
+    <t>Total Used Storage</t>
   </si>
 </sst>
 </file>
@@ -1404,9 +1416,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1709,10 +1724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD890"/>
+  <dimension ref="A1:AM890"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AM23" sqref="AM23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1729,9 +1744,25 @@
     <col min="10" max="10" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1766,7 +1797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1805,7 +1836,7 @@
         <v>Time</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1852,7 +1883,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1893,34 +1924,64 @@
         <v>12</v>
       </c>
       <c r="T4" t="s">
+        <v>429</v>
+      </c>
+      <c r="U4" t="s">
+        <v>430</v>
+      </c>
+      <c r="W4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH4" t="s">
         <v>431</v>
       </c>
-      <c r="U4" t="s">
+      <c r="AI4" t="s">
         <v>432</v>
       </c>
-      <c r="X4" t="s">
-        <v>429</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>430</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AJ4" t="s">
+        <v>433</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>434</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>435</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1954,8 +2015,66 @@
       <c r="K5">
         <v>183.131</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="W5" t="str" cm="1">
+        <f t="array" ref="W5:AG74">_xlfn._xlws.FILTER(A:K, (B:B=S4) * (TEXT(A:A, "yyyy-mm")="2024-10"))</f>
+        <v>2024-10-09</v>
+      </c>
+      <c r="X5" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y5" t="str">
+        <v>SCHROEDER</v>
+      </c>
+      <c r="Z5" t="str">
+        <v>Shroeder</v>
+      </c>
+      <c r="AA5">
+        <v>2</v>
+      </c>
+      <c r="AB5">
+        <v>167</v>
+      </c>
+      <c r="AC5">
+        <v>737</v>
+      </c>
+      <c r="AD5">
+        <v>8255</v>
+      </c>
+      <c r="AE5">
+        <v>8192</v>
+      </c>
+      <c r="AF5">
+        <v>738.11500000000001</v>
+      </c>
+      <c r="AG5">
+        <v>659.255</v>
+      </c>
+      <c r="AH5">
+        <f>SUM(AA:AA)</f>
+        <v>310</v>
+      </c>
+      <c r="AI5">
+        <f>ROUND(SUM(AC:AC)/1024,0)</f>
+        <v>151</v>
+      </c>
+      <c r="AJ5">
+        <f>ROUND(SUM(AD:AD)/1024,0)</f>
+        <v>1636</v>
+      </c>
+      <c r="AK5">
+        <f>ROUND(SUM(AE:AE)/1024,0)</f>
+        <v>1630</v>
+      </c>
+      <c r="AL5" s="2" t="str">
+        <f>_xlfn.CONCAT(ROUND(SUM(AF:AF)/1024,2)," TB")</f>
+        <v>27.93 TB</v>
+      </c>
+      <c r="AM5" s="2" t="str">
+        <f>_xlfn.CONCAT(ROUND(SUM(AG:AG)/1024,2)," TB")</f>
+        <v>22.01 TB</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1989,8 +2108,41 @@
       <c r="K6">
         <v>207.726</v>
       </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="W6" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X6" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y6" t="str">
+        <v>CHETMWAPP03</v>
+      </c>
+      <c r="Z6" t="str">
+        <v>CheTMWApp03</v>
+      </c>
+      <c r="AA6">
+        <v>2</v>
+      </c>
+      <c r="AB6">
+        <v>215</v>
+      </c>
+      <c r="AC6">
+        <v>778</v>
+      </c>
+      <c r="AD6">
+        <v>4141</v>
+      </c>
+      <c r="AE6">
+        <v>4096</v>
+      </c>
+      <c r="AF6">
+        <v>64.593000000000004</v>
+      </c>
+      <c r="AG6">
+        <v>53.237000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2024,8 +2176,41 @@
       <c r="K7">
         <v>155.405</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="W7" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X7" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y7" t="str">
+        <v>CHETMWSQLPROD-OG</v>
+      </c>
+      <c r="Z7" t="str">
+        <v>CHETMWSQLPROD-OG</v>
+      </c>
+      <c r="AA7">
+        <v>12</v>
+      </c>
+      <c r="AB7">
+        <v>4704</v>
+      </c>
+      <c r="AC7">
+        <v>24903</v>
+      </c>
+      <c r="AD7">
+        <v>131486</v>
+      </c>
+      <c r="AE7">
+        <v>131072</v>
+      </c>
+      <c r="AF7">
+        <v>1376.1320000000001</v>
+      </c>
+      <c r="AG7">
+        <v>692.52099999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2059,8 +2244,41 @@
       <c r="K8">
         <v>78.367000000000004</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="W8" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X8" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y8" t="str">
+        <v>CHEFUEL01</v>
+      </c>
+      <c r="Z8" t="str">
+        <v>CHEFUEL01</v>
+      </c>
+      <c r="AA8">
+        <v>4</v>
+      </c>
+      <c r="AB8">
+        <v>1975</v>
+      </c>
+      <c r="AC8">
+        <v>5406</v>
+      </c>
+      <c r="AD8">
+        <v>8175</v>
+      </c>
+      <c r="AE8">
+        <v>8192</v>
+      </c>
+      <c r="AF8">
+        <v>183.131</v>
+      </c>
+      <c r="AG8">
+        <v>183.131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2094,8 +2312,41 @@
       <c r="K9">
         <v>110.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="W9" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X9" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y9" t="str">
+        <v>CHETERM02</v>
+      </c>
+      <c r="Z9" t="str">
+        <v>CHETERM02</v>
+      </c>
+      <c r="AA9">
+        <v>8</v>
+      </c>
+      <c r="AB9">
+        <v>2981</v>
+      </c>
+      <c r="AC9">
+        <v>2457</v>
+      </c>
+      <c r="AD9">
+        <v>49349</v>
+      </c>
+      <c r="AE9">
+        <v>49152</v>
+      </c>
+      <c r="AF9">
+        <v>218.08500000000001</v>
+      </c>
+      <c r="AG9">
+        <v>207.726</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2129,8 +2380,41 @@
       <c r="K10">
         <v>108.14</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="W10" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X10" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y10" t="str">
+        <v>CHETMWAPP01-OG</v>
+      </c>
+      <c r="Z10" t="str">
+        <v>CHETMWAPP01-OG</v>
+      </c>
+      <c r="AA10">
+        <v>2</v>
+      </c>
+      <c r="AB10">
+        <v>251</v>
+      </c>
+      <c r="AC10">
+        <v>1556</v>
+      </c>
+      <c r="AD10">
+        <v>8264</v>
+      </c>
+      <c r="AE10">
+        <v>8192</v>
+      </c>
+      <c r="AF10">
+        <v>337.47500000000002</v>
+      </c>
+      <c r="AG10">
+        <v>155.405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2164,8 +2448,41 @@
       <c r="K11">
         <v>81.009</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="W11" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X11" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y11" t="str">
+        <v>WEB01</v>
+      </c>
+      <c r="Z11" t="str">
+        <v>Web01</v>
+      </c>
+      <c r="AA11">
+        <v>2</v>
+      </c>
+      <c r="AB11">
+        <v>215</v>
+      </c>
+      <c r="AC11">
+        <v>491</v>
+      </c>
+      <c r="AD11">
+        <v>8250</v>
+      </c>
+      <c r="AE11">
+        <v>8192</v>
+      </c>
+      <c r="AF11">
+        <v>158.14400000000001</v>
+      </c>
+      <c r="AG11">
+        <v>78.367000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2199,8 +2516,41 @@
       <c r="K12">
         <v>771.12800000000004</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="W12" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X12" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y12" t="str">
+        <v>TMW_APPS</v>
+      </c>
+      <c r="Z12" t="str">
+        <v>TMW_APPS</v>
+      </c>
+      <c r="AA12">
+        <v>2</v>
+      </c>
+      <c r="AB12">
+        <v>215</v>
+      </c>
+      <c r="AC12">
+        <v>1474</v>
+      </c>
+      <c r="AD12">
+        <v>8250</v>
+      </c>
+      <c r="AE12">
+        <v>8192</v>
+      </c>
+      <c r="AF12">
+        <v>114.19199999999999</v>
+      </c>
+      <c r="AG12">
+        <v>110.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2234,8 +2584,41 @@
       <c r="K13">
         <v>783.37900000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="W13" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X13" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y13" t="str">
+        <v>INTWEB02</v>
+      </c>
+      <c r="Z13" t="str">
+        <v>INTWEB02</v>
+      </c>
+      <c r="AA13">
+        <v>2</v>
+      </c>
+      <c r="AB13">
+        <v>287</v>
+      </c>
+      <c r="AC13">
+        <v>1474</v>
+      </c>
+      <c r="AD13">
+        <v>8245</v>
+      </c>
+      <c r="AE13">
+        <v>8192</v>
+      </c>
+      <c r="AF13">
+        <v>108.14</v>
+      </c>
+      <c r="AG13">
+        <v>108.14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2269,8 +2652,41 @@
       <c r="K14">
         <v>199.107</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="W14" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X14" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y14" t="str">
+        <v>CHEGPTERM02</v>
+      </c>
+      <c r="Z14" t="str">
+        <v>CHEGPTERM02</v>
+      </c>
+      <c r="AA14">
+        <v>2</v>
+      </c>
+      <c r="AB14">
+        <v>195</v>
+      </c>
+      <c r="AC14">
+        <v>1843</v>
+      </c>
+      <c r="AD14">
+        <v>12359</v>
+      </c>
+      <c r="AE14">
+        <v>12288</v>
+      </c>
+      <c r="AF14">
+        <v>112.178</v>
+      </c>
+      <c r="AG14">
+        <v>81.009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -2304,8 +2720,41 @@
       <c r="K15">
         <v>152.96799999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="W15" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X15" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y15" t="str">
+        <v>CHEJOB02</v>
+      </c>
+      <c r="Z15" t="str">
+        <v>CHEJOB02</v>
+      </c>
+      <c r="AA15">
+        <v>4</v>
+      </c>
+      <c r="AB15">
+        <v>363</v>
+      </c>
+      <c r="AC15">
+        <v>1638</v>
+      </c>
+      <c r="AD15">
+        <v>16474</v>
+      </c>
+      <c r="AE15">
+        <v>16384</v>
+      </c>
+      <c r="AF15">
+        <v>771.12800000000004</v>
+      </c>
+      <c r="AG15">
+        <v>771.12800000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -2339,8 +2788,41 @@
       <c r="K16">
         <v>188.036</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="W16" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X16" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y16" t="str">
+        <v>CHEEDIDEV01</v>
+      </c>
+      <c r="Z16" t="str">
+        <v>CHEEDIDEV01</v>
+      </c>
+      <c r="AA16">
+        <v>2</v>
+      </c>
+      <c r="AB16">
+        <v>2960</v>
+      </c>
+      <c r="AC16">
+        <v>2129</v>
+      </c>
+      <c r="AD16">
+        <v>8251</v>
+      </c>
+      <c r="AE16">
+        <v>8192</v>
+      </c>
+      <c r="AF16">
+        <v>1574.0740000000001</v>
+      </c>
+      <c r="AG16">
+        <v>783.37900000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -2374,8 +2856,41 @@
       <c r="K17">
         <v>166.35900000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="W17" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X17" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y17" t="str">
+        <v>CHETERM06</v>
+      </c>
+      <c r="Z17" t="str">
+        <v>CHETERM06</v>
+      </c>
+      <c r="AA17">
+        <v>8</v>
+      </c>
+      <c r="AB17">
+        <v>3993</v>
+      </c>
+      <c r="AC17">
+        <v>4423</v>
+      </c>
+      <c r="AD17">
+        <v>49352</v>
+      </c>
+      <c r="AE17">
+        <v>49152</v>
+      </c>
+      <c r="AF17">
+        <v>203.08500000000001</v>
+      </c>
+      <c r="AG17">
+        <v>199.107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -2409,8 +2924,41 @@
       <c r="K18">
         <v>178.26900000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="W18" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X18" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y18" t="str">
+        <v>CHETERM07-10</v>
+      </c>
+      <c r="Z18" t="str">
+        <v>CHETERM10</v>
+      </c>
+      <c r="AA18">
+        <v>8</v>
+      </c>
+      <c r="AB18">
+        <v>307</v>
+      </c>
+      <c r="AC18">
+        <v>1474</v>
+      </c>
+      <c r="AD18">
+        <v>49334</v>
+      </c>
+      <c r="AE18">
+        <v>49152</v>
+      </c>
+      <c r="AF18">
+        <v>213.08500000000001</v>
+      </c>
+      <c r="AG18">
+        <v>152.96799999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -2444,8 +2992,41 @@
       <c r="K19">
         <v>152.96799999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="W19" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X19" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y19" t="str">
+        <v>CHETERM07-10</v>
+      </c>
+      <c r="Z19" t="str">
+        <v>CHETERM07</v>
+      </c>
+      <c r="AA19">
+        <v>8</v>
+      </c>
+      <c r="AB19">
+        <v>2736</v>
+      </c>
+      <c r="AC19">
+        <v>491</v>
+      </c>
+      <c r="AD19">
+        <v>49349</v>
+      </c>
+      <c r="AE19">
+        <v>49152</v>
+      </c>
+      <c r="AF19">
+        <v>198.08500000000001</v>
+      </c>
+      <c r="AG19">
+        <v>188.036</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -2479,8 +3060,41 @@
       <c r="K20">
         <v>188.036</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="W20" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X20" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y20" t="str">
+        <v>CHETERM07-10</v>
+      </c>
+      <c r="Z20" t="str">
+        <v>CHETERM09</v>
+      </c>
+      <c r="AA20">
+        <v>8</v>
+      </c>
+      <c r="AB20">
+        <v>2772</v>
+      </c>
+      <c r="AC20">
+        <v>1474</v>
+      </c>
+      <c r="AD20">
+        <v>49342</v>
+      </c>
+      <c r="AE20">
+        <v>49152</v>
+      </c>
+      <c r="AF20">
+        <v>248.08500000000001</v>
+      </c>
+      <c r="AG20">
+        <v>166.35900000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -2514,8 +3128,41 @@
       <c r="K21">
         <v>166.35900000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="W21" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X21" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y21" t="str">
+        <v>CHETERM07-10</v>
+      </c>
+      <c r="Z21" t="str">
+        <v>CHETERM08</v>
+      </c>
+      <c r="AA21">
+        <v>8</v>
+      </c>
+      <c r="AB21">
+        <v>3239</v>
+      </c>
+      <c r="AC21">
+        <v>1966</v>
+      </c>
+      <c r="AD21">
+        <v>49353</v>
+      </c>
+      <c r="AE21">
+        <v>49152</v>
+      </c>
+      <c r="AF21">
+        <v>198.08500000000001</v>
+      </c>
+      <c r="AG21">
+        <v>178.26900000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -2549,8 +3196,41 @@
       <c r="K22">
         <v>178.26900000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="W22" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X22" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y22" t="str">
+        <v>CHETERM07-10</v>
+      </c>
+      <c r="Z22" t="str">
+        <v>CHETERM10</v>
+      </c>
+      <c r="AA22">
+        <v>8</v>
+      </c>
+      <c r="AB22">
+        <v>307</v>
+      </c>
+      <c r="AC22">
+        <v>1474</v>
+      </c>
+      <c r="AD22">
+        <v>49334</v>
+      </c>
+      <c r="AE22">
+        <v>49152</v>
+      </c>
+      <c r="AF22">
+        <v>213.08500000000001</v>
+      </c>
+      <c r="AG22">
+        <v>152.96799999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -2584,8 +3264,41 @@
       <c r="K23">
         <v>108.53400000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="W23" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X23" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y23" t="str">
+        <v>CHETERM07-10</v>
+      </c>
+      <c r="Z23" t="str">
+        <v>CHETERM07</v>
+      </c>
+      <c r="AA23">
+        <v>8</v>
+      </c>
+      <c r="AB23">
+        <v>2736</v>
+      </c>
+      <c r="AC23">
+        <v>491</v>
+      </c>
+      <c r="AD23">
+        <v>49349</v>
+      </c>
+      <c r="AE23">
+        <v>49152</v>
+      </c>
+      <c r="AF23">
+        <v>198.08500000000001</v>
+      </c>
+      <c r="AG23">
+        <v>188.036</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -2619,8 +3332,41 @@
       <c r="K24">
         <v>152.96799999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="W24" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X24" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y24" t="str">
+        <v>CHETERM07-10</v>
+      </c>
+      <c r="Z24" t="str">
+        <v>CHETERM09</v>
+      </c>
+      <c r="AA24">
+        <v>8</v>
+      </c>
+      <c r="AB24">
+        <v>2772</v>
+      </c>
+      <c r="AC24">
+        <v>1474</v>
+      </c>
+      <c r="AD24">
+        <v>49342</v>
+      </c>
+      <c r="AE24">
+        <v>49152</v>
+      </c>
+      <c r="AF24">
+        <v>248.08500000000001</v>
+      </c>
+      <c r="AG24">
+        <v>166.35900000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -2654,8 +3400,41 @@
       <c r="K25">
         <v>188.036</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="W25" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X25" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y25" t="str">
+        <v>CHETERM07-10</v>
+      </c>
+      <c r="Z25" t="str">
+        <v>CHETERM08</v>
+      </c>
+      <c r="AA25">
+        <v>8</v>
+      </c>
+      <c r="AB25">
+        <v>3239</v>
+      </c>
+      <c r="AC25">
+        <v>1966</v>
+      </c>
+      <c r="AD25">
+        <v>49353</v>
+      </c>
+      <c r="AE25">
+        <v>49152</v>
+      </c>
+      <c r="AF25">
+        <v>198.08500000000001</v>
+      </c>
+      <c r="AG25">
+        <v>178.26900000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -2689,8 +3468,41 @@
       <c r="K26">
         <v>166.35900000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="W26" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X26" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y26" t="str">
+        <v>CHETMWAPP04</v>
+      </c>
+      <c r="Z26" t="str">
+        <v>CHETMWAPP04</v>
+      </c>
+      <c r="AA26">
+        <v>2</v>
+      </c>
+      <c r="AB26">
+        <v>143</v>
+      </c>
+      <c r="AC26">
+        <v>819</v>
+      </c>
+      <c r="AD26">
+        <v>8224</v>
+      </c>
+      <c r="AE26">
+        <v>8192</v>
+      </c>
+      <c r="AF26">
+        <v>108.53400000000001</v>
+      </c>
+      <c r="AG26">
+        <v>108.53400000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2724,8 +3536,41 @@
       <c r="K27">
         <v>178.26900000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="W27" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X27" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y27" t="str">
+        <v>CHETERM07-10</v>
+      </c>
+      <c r="Z27" t="str">
+        <v>CHETERM10</v>
+      </c>
+      <c r="AA27">
+        <v>8</v>
+      </c>
+      <c r="AB27">
+        <v>307</v>
+      </c>
+      <c r="AC27">
+        <v>1474</v>
+      </c>
+      <c r="AD27">
+        <v>49334</v>
+      </c>
+      <c r="AE27">
+        <v>49152</v>
+      </c>
+      <c r="AF27">
+        <v>213.08500000000001</v>
+      </c>
+      <c r="AG27">
+        <v>152.96799999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -2759,8 +3604,41 @@
       <c r="K28">
         <v>693.79</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="W28" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X28" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y28" t="str">
+        <v>CHETERM07-10</v>
+      </c>
+      <c r="Z28" t="str">
+        <v>CHETERM07</v>
+      </c>
+      <c r="AA28">
+        <v>8</v>
+      </c>
+      <c r="AB28">
+        <v>2736</v>
+      </c>
+      <c r="AC28">
+        <v>491</v>
+      </c>
+      <c r="AD28">
+        <v>49349</v>
+      </c>
+      <c r="AE28">
+        <v>49152</v>
+      </c>
+      <c r="AF28">
+        <v>198.08500000000001</v>
+      </c>
+      <c r="AG28">
+        <v>188.036</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -2794,8 +3672,41 @@
       <c r="K29">
         <v>152.96799999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="W29" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X29" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y29" t="str">
+        <v>CHETERM07-10</v>
+      </c>
+      <c r="Z29" t="str">
+        <v>CHETERM09</v>
+      </c>
+      <c r="AA29">
+        <v>8</v>
+      </c>
+      <c r="AB29">
+        <v>2772</v>
+      </c>
+      <c r="AC29">
+        <v>1474</v>
+      </c>
+      <c r="AD29">
+        <v>49342</v>
+      </c>
+      <c r="AE29">
+        <v>49152</v>
+      </c>
+      <c r="AF29">
+        <v>248.08500000000001</v>
+      </c>
+      <c r="AG29">
+        <v>166.35900000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -2829,8 +3740,41 @@
       <c r="K30">
         <v>188.036</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="W30" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X30" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y30" t="str">
+        <v>CHETERM07-10</v>
+      </c>
+      <c r="Z30" t="str">
+        <v>CHETERM08</v>
+      </c>
+      <c r="AA30">
+        <v>8</v>
+      </c>
+      <c r="AB30">
+        <v>3239</v>
+      </c>
+      <c r="AC30">
+        <v>1966</v>
+      </c>
+      <c r="AD30">
+        <v>49353</v>
+      </c>
+      <c r="AE30">
+        <v>49152</v>
+      </c>
+      <c r="AF30">
+        <v>198.08500000000001</v>
+      </c>
+      <c r="AG30">
+        <v>178.26900000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -2864,8 +3808,41 @@
       <c r="K31">
         <v>166.35900000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="W31" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X31" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y31" t="str">
+        <v>GPSQL01</v>
+      </c>
+      <c r="Z31" t="str">
+        <v>GPSQL01</v>
+      </c>
+      <c r="AA31">
+        <v>2</v>
+      </c>
+      <c r="AB31">
+        <v>468</v>
+      </c>
+      <c r="AC31">
+        <v>983</v>
+      </c>
+      <c r="AD31">
+        <v>24629</v>
+      </c>
+      <c r="AE31">
+        <v>24576</v>
+      </c>
+      <c r="AF31">
+        <v>1424.4</v>
+      </c>
+      <c r="AG31">
+        <v>693.79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -2899,8 +3876,41 @@
       <c r="K32">
         <v>178.26900000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W32" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X32" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y32" t="str">
+        <v>CHETERM07-10</v>
+      </c>
+      <c r="Z32" t="str">
+        <v>CHETERM10</v>
+      </c>
+      <c r="AA32">
+        <v>8</v>
+      </c>
+      <c r="AB32">
+        <v>307</v>
+      </c>
+      <c r="AC32">
+        <v>1474</v>
+      </c>
+      <c r="AD32">
+        <v>49334</v>
+      </c>
+      <c r="AE32">
+        <v>49152</v>
+      </c>
+      <c r="AF32">
+        <v>213.08500000000001</v>
+      </c>
+      <c r="AG32">
+        <v>152.96799999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -2934,8 +3944,41 @@
       <c r="K33">
         <v>108.155</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W33" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X33" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y33" t="str">
+        <v>CHETERM07-10</v>
+      </c>
+      <c r="Z33" t="str">
+        <v>CHETERM07</v>
+      </c>
+      <c r="AA33">
+        <v>8</v>
+      </c>
+      <c r="AB33">
+        <v>2736</v>
+      </c>
+      <c r="AC33">
+        <v>491</v>
+      </c>
+      <c r="AD33">
+        <v>49349</v>
+      </c>
+      <c r="AE33">
+        <v>49152</v>
+      </c>
+      <c r="AF33">
+        <v>198.08500000000001</v>
+      </c>
+      <c r="AG33">
+        <v>188.036</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -2969,8 +4012,41 @@
       <c r="K34">
         <v>95.727999999999994</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W34" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X34" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y34" t="str">
+        <v>CHETERM07-10</v>
+      </c>
+      <c r="Z34" t="str">
+        <v>CHETERM09</v>
+      </c>
+      <c r="AA34">
+        <v>8</v>
+      </c>
+      <c r="AB34">
+        <v>2772</v>
+      </c>
+      <c r="AC34">
+        <v>1474</v>
+      </c>
+      <c r="AD34">
+        <v>49342</v>
+      </c>
+      <c r="AE34">
+        <v>49152</v>
+      </c>
+      <c r="AF34">
+        <v>248.08500000000001</v>
+      </c>
+      <c r="AG34">
+        <v>166.35900000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -3004,8 +4080,41 @@
       <c r="K35">
         <v>108.155</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W35" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X35" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y35" t="str">
+        <v>CHETERM07-10</v>
+      </c>
+      <c r="Z35" t="str">
+        <v>CHETERM08</v>
+      </c>
+      <c r="AA35">
+        <v>8</v>
+      </c>
+      <c r="AB35">
+        <v>3239</v>
+      </c>
+      <c r="AC35">
+        <v>1966</v>
+      </c>
+      <c r="AD35">
+        <v>49353</v>
+      </c>
+      <c r="AE35">
+        <v>49152</v>
+      </c>
+      <c r="AF35">
+        <v>198.08500000000001</v>
+      </c>
+      <c r="AG35">
+        <v>178.26900000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -3043,8 +4152,41 @@
         <f t="array" ref="N36:N49">_xlfn.UNIQUE(B:B,FALSE,FALSE)</f>
         <v>Zorg Name</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W36" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X36" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y36" t="str">
+        <v>DEVINTWEB</v>
+      </c>
+      <c r="Z36" t="str">
+        <v>DEVINTWEB02</v>
+      </c>
+      <c r="AA36">
+        <v>2</v>
+      </c>
+      <c r="AB36">
+        <v>430</v>
+      </c>
+      <c r="AC36">
+        <v>819</v>
+      </c>
+      <c r="AD36">
+        <v>8232</v>
+      </c>
+      <c r="AE36">
+        <v>8192</v>
+      </c>
+      <c r="AF36">
+        <v>108.155</v>
+      </c>
+      <c r="AG36">
+        <v>108.155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -3081,8 +4223,41 @@
       <c r="N37" t="str">
         <v>TSI</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W37" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X37" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y37" t="str">
+        <v>DEVINTWEB</v>
+      </c>
+      <c r="Z37" t="str">
+        <v>DevIntWeb</v>
+      </c>
+      <c r="AA37">
+        <v>2</v>
+      </c>
+      <c r="AB37">
+        <v>279</v>
+      </c>
+      <c r="AC37">
+        <v>983</v>
+      </c>
+      <c r="AD37">
+        <v>8250</v>
+      </c>
+      <c r="AE37">
+        <v>8192</v>
+      </c>
+      <c r="AF37">
+        <v>128.15899999999999</v>
+      </c>
+      <c r="AG37">
+        <v>95.727999999999994</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -3119,8 +4294,41 @@
       <c r="N38" t="str">
         <v>BMA Bank</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W38" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X38" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y38" t="str">
+        <v>DEVINTWEB</v>
+      </c>
+      <c r="Z38" t="str">
+        <v>DEVINTWEB02</v>
+      </c>
+      <c r="AA38">
+        <v>2</v>
+      </c>
+      <c r="AB38">
+        <v>430</v>
+      </c>
+      <c r="AC38">
+        <v>819</v>
+      </c>
+      <c r="AD38">
+        <v>8232</v>
+      </c>
+      <c r="AE38">
+        <v>8192</v>
+      </c>
+      <c r="AF38">
+        <v>108.155</v>
+      </c>
+      <c r="AG38">
+        <v>108.155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -3157,8 +4365,41 @@
       <c r="N39" t="str">
         <v>3FORM</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W39" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X39" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y39" t="str">
+        <v>DEVINTWEB</v>
+      </c>
+      <c r="Z39" t="str">
+        <v>DevIntWeb</v>
+      </c>
+      <c r="AA39">
+        <v>2</v>
+      </c>
+      <c r="AB39">
+        <v>279</v>
+      </c>
+      <c r="AC39">
+        <v>983</v>
+      </c>
+      <c r="AD39">
+        <v>8250</v>
+      </c>
+      <c r="AE39">
+        <v>8192</v>
+      </c>
+      <c r="AF39">
+        <v>128.15899999999999</v>
+      </c>
+      <c r="AG39">
+        <v>95.727999999999994</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -3195,8 +4436,41 @@
       <c r="N40" t="str">
         <v>Netcuras</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W40" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X40" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y40" t="str">
+        <v>CHESYNAPP01</v>
+      </c>
+      <c r="Z40" t="str">
+        <v>CHESYNAPP01</v>
+      </c>
+      <c r="AA40">
+        <v>2</v>
+      </c>
+      <c r="AB40">
+        <v>1008</v>
+      </c>
+      <c r="AC40">
+        <v>1843</v>
+      </c>
+      <c r="AD40">
+        <v>6147</v>
+      </c>
+      <c r="AE40">
+        <v>6144</v>
+      </c>
+      <c r="AF40">
+        <v>2927.2779999999998</v>
+      </c>
+      <c r="AG40">
+        <v>2732.2170000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -3233,8 +4507,41 @@
       <c r="N41" t="str">
         <v>AssociatedFoods</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W41" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X41" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y41" t="str">
+        <v>CHETMWAPP02</v>
+      </c>
+      <c r="Z41" t="str">
+        <v>CheTMWApp02</v>
+      </c>
+      <c r="AA41">
+        <v>2</v>
+      </c>
+      <c r="AB41">
+        <v>179</v>
+      </c>
+      <c r="AC41">
+        <v>778</v>
+      </c>
+      <c r="AD41">
+        <v>4142</v>
+      </c>
+      <c r="AE41">
+        <v>4096</v>
+      </c>
+      <c r="AF41">
+        <v>144.61099999999999</v>
+      </c>
+      <c r="AG41">
+        <v>57.433</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -3271,8 +4578,41 @@
       <c r="N42" t="str">
         <v>Journal Tech</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W42" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X42" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y42" t="str">
+        <v>DEVWEB</v>
+      </c>
+      <c r="Z42" t="str">
+        <v>DEVWEB02(1)</v>
+      </c>
+      <c r="AA42">
+        <v>2</v>
+      </c>
+      <c r="AB42">
+        <v>55</v>
+      </c>
+      <c r="AC42">
+        <v>819</v>
+      </c>
+      <c r="AD42">
+        <v>8250</v>
+      </c>
+      <c r="AE42">
+        <v>8192</v>
+      </c>
+      <c r="AF42">
+        <v>108.259</v>
+      </c>
+      <c r="AG42">
+        <v>42.408000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -3309,8 +4649,41 @@
       <c r="N43" t="str">
         <v>EQL-EQLtoSTG</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W43" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X43" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y43" t="str">
+        <v>DEVWEB</v>
+      </c>
+      <c r="Z43" t="str">
+        <v>DevWeb</v>
+      </c>
+      <c r="AA43">
+        <v>2</v>
+      </c>
+      <c r="AB43">
+        <v>215</v>
+      </c>
+      <c r="AC43">
+        <v>614</v>
+      </c>
+      <c r="AD43">
+        <v>4132</v>
+      </c>
+      <c r="AE43">
+        <v>4096</v>
+      </c>
+      <c r="AF43">
+        <v>104.26</v>
+      </c>
+      <c r="AG43">
+        <v>51.707000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -3347,8 +4720,41 @@
       <c r="N44" t="str">
         <v>PRIME</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W44" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X44" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y44" t="str">
+        <v>ASR01</v>
+      </c>
+      <c r="Z44" t="str">
+        <v>ASR01</v>
+      </c>
+      <c r="AA44">
+        <v>2</v>
+      </c>
+      <c r="AB44">
+        <v>4140</v>
+      </c>
+      <c r="AC44">
+        <v>655</v>
+      </c>
+      <c r="AD44">
+        <v>8197</v>
+      </c>
+      <c r="AE44">
+        <v>8192</v>
+      </c>
+      <c r="AF44">
+        <v>88.108999999999995</v>
+      </c>
+      <c r="AG44">
+        <v>88.108999999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -3385,8 +4791,41 @@
       <c r="N45" t="str">
         <v>KLAS_Enterprises</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W45" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X45" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y45" t="str">
+        <v>WEB02</v>
+      </c>
+      <c r="Z45" t="str">
+        <v>WEB02</v>
+      </c>
+      <c r="AA45">
+        <v>2</v>
+      </c>
+      <c r="AB45">
+        <v>35</v>
+      </c>
+      <c r="AC45">
+        <v>491</v>
+      </c>
+      <c r="AD45">
+        <v>8250</v>
+      </c>
+      <c r="AE45">
+        <v>8192</v>
+      </c>
+      <c r="AF45">
+        <v>108.14100000000001</v>
+      </c>
+      <c r="AG45">
+        <v>108.14100000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -3423,8 +4862,41 @@
       <c r="N46" t="str">
         <v>Allstar-Healthcare</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W46" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X46" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y46" t="str">
+        <v>DEVWEB</v>
+      </c>
+      <c r="Z46" t="str">
+        <v>DEVWEB02(1)</v>
+      </c>
+      <c r="AA46">
+        <v>2</v>
+      </c>
+      <c r="AB46">
+        <v>55</v>
+      </c>
+      <c r="AC46">
+        <v>819</v>
+      </c>
+      <c r="AD46">
+        <v>8250</v>
+      </c>
+      <c r="AE46">
+        <v>8192</v>
+      </c>
+      <c r="AF46">
+        <v>108.259</v>
+      </c>
+      <c r="AG46">
+        <v>42.408000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -3461,8 +4933,41 @@
       <c r="N47" t="str">
         <v>EMI</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W47" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X47" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y47" t="str">
+        <v>DEVWEB</v>
+      </c>
+      <c r="Z47" t="str">
+        <v>DevWeb</v>
+      </c>
+      <c r="AA47">
+        <v>2</v>
+      </c>
+      <c r="AB47">
+        <v>215</v>
+      </c>
+      <c r="AC47">
+        <v>614</v>
+      </c>
+      <c r="AD47">
+        <v>4132</v>
+      </c>
+      <c r="AE47">
+        <v>4096</v>
+      </c>
+      <c r="AF47">
+        <v>104.26</v>
+      </c>
+      <c r="AG47">
+        <v>51.707000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -3499,8 +5004,41 @@
       <c r="N48" t="str">
         <v>Mitek</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W48" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X48" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y48" t="str">
+        <v>CHEGPTERM01</v>
+      </c>
+      <c r="Z48" t="str">
+        <v>CHEGPTERM01</v>
+      </c>
+      <c r="AA48">
+        <v>4</v>
+      </c>
+      <c r="AB48">
+        <v>718</v>
+      </c>
+      <c r="AC48">
+        <v>4423</v>
+      </c>
+      <c r="AD48">
+        <v>12367</v>
+      </c>
+      <c r="AE48">
+        <v>12288</v>
+      </c>
+      <c r="AF48">
+        <v>112.167</v>
+      </c>
+      <c r="AG48">
+        <v>112.167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -3537,8 +5075,41 @@
       <c r="N49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W49" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X49" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y49" t="str">
+        <v>IntWeb01</v>
+      </c>
+      <c r="Z49" t="str">
+        <v>IntWeb01</v>
+      </c>
+      <c r="AA49">
+        <v>2</v>
+      </c>
+      <c r="AB49">
+        <v>287</v>
+      </c>
+      <c r="AC49">
+        <v>1474</v>
+      </c>
+      <c r="AD49">
+        <v>16468</v>
+      </c>
+      <c r="AE49">
+        <v>16384</v>
+      </c>
+      <c r="AF49">
+        <v>266.19</v>
+      </c>
+      <c r="AG49">
+        <v>178.25700000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -3572,8 +5143,41 @@
       <c r="K50">
         <v>139.553</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W50" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X50" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y50" t="str">
+        <v>CHETMWSQLQA</v>
+      </c>
+      <c r="Z50" t="str">
+        <v>CHETMWSQLQA(1)</v>
+      </c>
+      <c r="AA50">
+        <v>2</v>
+      </c>
+      <c r="AB50">
+        <v>1508</v>
+      </c>
+      <c r="AC50">
+        <v>4915</v>
+      </c>
+      <c r="AD50">
+        <v>16421</v>
+      </c>
+      <c r="AE50">
+        <v>16384</v>
+      </c>
+      <c r="AF50">
+        <v>1199.104</v>
+      </c>
+      <c r="AG50">
+        <v>899.20500000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -3607,8 +5211,41 @@
       <c r="K51">
         <v>498.66500000000002</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W51" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X51" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y51" t="str">
+        <v>CheSCCM01</v>
+      </c>
+      <c r="Z51" t="str">
+        <v>CheSCCM01</v>
+      </c>
+      <c r="AA51">
+        <v>4</v>
+      </c>
+      <c r="AB51">
+        <v>1368</v>
+      </c>
+      <c r="AC51">
+        <v>3276</v>
+      </c>
+      <c r="AD51">
+        <v>16468</v>
+      </c>
+      <c r="AE51">
+        <v>16384</v>
+      </c>
+      <c r="AF51">
+        <v>787.65300000000002</v>
+      </c>
+      <c r="AG51">
+        <v>652.58299999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -3642,8 +5279,41 @@
       <c r="K52">
         <v>96.951999999999998</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W52" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X52" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y52" t="str">
+        <v>CHETMWGP01</v>
+      </c>
+      <c r="Z52" t="str">
+        <v>CHETMWGP01</v>
+      </c>
+      <c r="AA52">
+        <v>4</v>
+      </c>
+      <c r="AB52">
+        <v>215</v>
+      </c>
+      <c r="AC52">
+        <v>901</v>
+      </c>
+      <c r="AD52">
+        <v>4148</v>
+      </c>
+      <c r="AE52">
+        <v>4096</v>
+      </c>
+      <c r="AF52">
+        <v>104.081</v>
+      </c>
+      <c r="AG52">
+        <v>99.947000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -3677,8 +5347,41 @@
       <c r="K53">
         <v>207.68199999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W53" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X53" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y53" t="str">
+        <v>CHEPR02</v>
+      </c>
+      <c r="Z53" t="str">
+        <v>CHEPR02</v>
+      </c>
+      <c r="AA53">
+        <v>2</v>
+      </c>
+      <c r="AB53">
+        <v>360</v>
+      </c>
+      <c r="AC53">
+        <v>983</v>
+      </c>
+      <c r="AD53">
+        <v>8231</v>
+      </c>
+      <c r="AE53">
+        <v>8192</v>
+      </c>
+      <c r="AF53">
+        <v>200.78899999999999</v>
+      </c>
+      <c r="AG53">
+        <v>139.553</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -3712,8 +5415,41 @@
       <c r="K54">
         <v>138.881</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W54" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X54" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y54" t="str">
+        <v>CHESYNSQL01</v>
+      </c>
+      <c r="Z54" t="str">
+        <v>CHESYNSQL01</v>
+      </c>
+      <c r="AA54">
+        <v>4</v>
+      </c>
+      <c r="AB54">
+        <v>1692</v>
+      </c>
+      <c r="AC54">
+        <v>13516</v>
+      </c>
+      <c r="AD54">
+        <v>24642</v>
+      </c>
+      <c r="AE54">
+        <v>24576</v>
+      </c>
+      <c r="AF54">
+        <v>549.08100000000002</v>
+      </c>
+      <c r="AG54">
+        <v>498.66500000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -3747,8 +5483,41 @@
       <c r="K55">
         <v>161.536</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W55" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X55" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y55" t="str">
+        <v>CHETERM01</v>
+      </c>
+      <c r="Z55" t="str">
+        <v>CHETERM01</v>
+      </c>
+      <c r="AA55">
+        <v>8</v>
+      </c>
+      <c r="AB55">
+        <v>574</v>
+      </c>
+      <c r="AC55">
+        <v>1146</v>
+      </c>
+      <c r="AD55">
+        <v>8244</v>
+      </c>
+      <c r="AE55">
+        <v>8192</v>
+      </c>
+      <c r="AF55">
+        <v>108.08499999999999</v>
+      </c>
+      <c r="AG55">
+        <v>96.951999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -3782,8 +5551,41 @@
       <c r="K56">
         <v>197.96</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W56" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X56" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y56" t="str">
+        <v>CHETERM03</v>
+      </c>
+      <c r="Z56" t="str">
+        <v>CHETERM03</v>
+      </c>
+      <c r="AA56">
+        <v>8</v>
+      </c>
+      <c r="AB56">
+        <v>359</v>
+      </c>
+      <c r="AC56">
+        <v>2949</v>
+      </c>
+      <c r="AD56">
+        <v>49352</v>
+      </c>
+      <c r="AE56">
+        <v>49152</v>
+      </c>
+      <c r="AF56">
+        <v>223.08500000000001</v>
+      </c>
+      <c r="AG56">
+        <v>207.68199999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -3817,8 +5619,41 @@
       <c r="K57">
         <v>282</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W57" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X57" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y57" t="str">
+        <v>CHEJOB01</v>
+      </c>
+      <c r="Z57" t="str">
+        <v>CHEJOB01</v>
+      </c>
+      <c r="AA57">
+        <v>2</v>
+      </c>
+      <c r="AB57">
+        <v>252</v>
+      </c>
+      <c r="AC57">
+        <v>1064</v>
+      </c>
+      <c r="AD57">
+        <v>4144</v>
+      </c>
+      <c r="AE57">
+        <v>4096</v>
+      </c>
+      <c r="AF57">
+        <v>144.08600000000001</v>
+      </c>
+      <c r="AG57">
+        <v>138.881</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -3852,8 +5687,41 @@
       <c r="K58">
         <v>45.713999999999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W58" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X58" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y58" t="str">
+        <v>CHEPR01A</v>
+      </c>
+      <c r="Z58" t="str">
+        <v>CHEPR01A</v>
+      </c>
+      <c r="AA58">
+        <v>2</v>
+      </c>
+      <c r="AB58">
+        <v>466</v>
+      </c>
+      <c r="AC58">
+        <v>1802</v>
+      </c>
+      <c r="AD58">
+        <v>8198</v>
+      </c>
+      <c r="AE58">
+        <v>8192</v>
+      </c>
+      <c r="AF58">
+        <v>236.03100000000001</v>
+      </c>
+      <c r="AG58">
+        <v>161.536</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -3887,8 +5755,41 @@
       <c r="K59">
         <v>1366.931</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W59" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X59" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y59" t="str">
+        <v>CHETERM04</v>
+      </c>
+      <c r="Z59" t="str">
+        <v>CHETERM04</v>
+      </c>
+      <c r="AA59">
+        <v>8</v>
+      </c>
+      <c r="AB59">
+        <v>4357</v>
+      </c>
+      <c r="AC59">
+        <v>2457</v>
+      </c>
+      <c r="AD59">
+        <v>49351</v>
+      </c>
+      <c r="AE59">
+        <v>49152</v>
+      </c>
+      <c r="AF59">
+        <v>198.08500000000001</v>
+      </c>
+      <c r="AG59">
+        <v>197.96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -3922,8 +5823,41 @@
       <c r="K60">
         <v>208.92699999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W60" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X60" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y60" t="str">
+        <v>CHESYNPRO01</v>
+      </c>
+      <c r="Z60" t="str">
+        <v>CHESYNPRO01</v>
+      </c>
+      <c r="AA60">
+        <v>8</v>
+      </c>
+      <c r="AB60">
+        <v>5244</v>
+      </c>
+      <c r="AC60">
+        <v>2088</v>
+      </c>
+      <c r="AD60">
+        <v>12329</v>
+      </c>
+      <c r="AE60">
+        <v>12288</v>
+      </c>
+      <c r="AF60">
+        <v>282.08499999999998</v>
+      </c>
+      <c r="AG60">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -3957,8 +5891,41 @@
       <c r="K61">
         <v>1185.9269999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W61" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X61" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y61" t="str">
+        <v>CHECERT01</v>
+      </c>
+      <c r="Z61" t="str">
+        <v>CHECERT01</v>
+      </c>
+      <c r="AA61">
+        <v>2</v>
+      </c>
+      <c r="AB61">
+        <v>363</v>
+      </c>
+      <c r="AC61">
+        <v>737</v>
+      </c>
+      <c r="AD61">
+        <v>8220</v>
+      </c>
+      <c r="AE61">
+        <v>8192</v>
+      </c>
+      <c r="AF61">
+        <v>69.088999999999999</v>
+      </c>
+      <c r="AG61">
+        <v>45.713999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -3992,8 +5959,41 @@
       <c r="K62">
         <v>106.03400000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W62" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X62" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y62" t="str">
+        <v>SQL01</v>
+      </c>
+      <c r="Z62" t="str">
+        <v>SQL01</v>
+      </c>
+      <c r="AA62">
+        <v>4</v>
+      </c>
+      <c r="AB62">
+        <v>1436</v>
+      </c>
+      <c r="AC62">
+        <v>5898</v>
+      </c>
+      <c r="AD62">
+        <v>24661</v>
+      </c>
+      <c r="AE62">
+        <v>24576</v>
+      </c>
+      <c r="AF62">
+        <v>1719.732</v>
+      </c>
+      <c r="AG62">
+        <v>1366.931</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -4027,8 +6027,41 @@
       <c r="K63">
         <v>108.52500000000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W63" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X63" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y63" t="str">
+        <v>CHEANYWHERE365</v>
+      </c>
+      <c r="Z63" t="str">
+        <v>CheANYWHERE365(1)</v>
+      </c>
+      <c r="AA63">
+        <v>2</v>
+      </c>
+      <c r="AB63">
+        <v>251</v>
+      </c>
+      <c r="AC63">
+        <v>901</v>
+      </c>
+      <c r="AD63">
+        <v>4141</v>
+      </c>
+      <c r="AE63">
+        <v>4096</v>
+      </c>
+      <c r="AF63">
+        <v>229.07900000000001</v>
+      </c>
+      <c r="AG63">
+        <v>208.92699999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -4062,8 +6095,41 @@
       <c r="K64">
         <v>170.256</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="W64" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X64" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y64" t="str">
+        <v>SQL02-OG</v>
+      </c>
+      <c r="Z64" t="str">
+        <v>SQL02-OG</v>
+      </c>
+      <c r="AA64">
+        <v>4</v>
+      </c>
+      <c r="AB64">
+        <v>1476</v>
+      </c>
+      <c r="AC64">
+        <v>7864</v>
+      </c>
+      <c r="AD64">
+        <v>32873</v>
+      </c>
+      <c r="AE64">
+        <v>32768</v>
+      </c>
+      <c r="AF64">
+        <v>1417.1949999999999</v>
+      </c>
+      <c r="AG64">
+        <v>1185.9269999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -4097,8 +6163,41 @@
       <c r="K65">
         <v>705.63499999999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="W65" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X65" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y65" t="str">
+        <v>CHEDUOPROXY</v>
+      </c>
+      <c r="Z65" t="str">
+        <v>CHEDUOPROXY</v>
+      </c>
+      <c r="AA65">
+        <v>2</v>
+      </c>
+      <c r="AB65">
+        <v>614</v>
+      </c>
+      <c r="AC65">
+        <v>614</v>
+      </c>
+      <c r="AD65">
+        <v>4142</v>
+      </c>
+      <c r="AE65">
+        <v>4096</v>
+      </c>
+      <c r="AF65">
+        <v>188.53899999999999</v>
+      </c>
+      <c r="AG65">
+        <v>106.03400000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>11</v>
       </c>
@@ -4132,8 +6231,41 @@
       <c r="K66">
         <v>62.421999999999997</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="W66" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X66" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y66" t="str">
+        <v>SYSTEMSLINKEXT</v>
+      </c>
+      <c r="Z66" t="str">
+        <v>SYSTEMSLINKEXT</v>
+      </c>
+      <c r="AA66">
+        <v>2</v>
+      </c>
+      <c r="AB66">
+        <v>538</v>
+      </c>
+      <c r="AC66">
+        <v>1146</v>
+      </c>
+      <c r="AD66">
+        <v>8254</v>
+      </c>
+      <c r="AE66">
+        <v>8192</v>
+      </c>
+      <c r="AF66">
+        <v>108.52500000000001</v>
+      </c>
+      <c r="AG66">
+        <v>108.52500000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -4167,8 +6299,41 @@
       <c r="K67">
         <v>108.533</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="W67" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X67" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y67" t="str">
+        <v>CHETERM05</v>
+      </c>
+      <c r="Z67" t="str">
+        <v>CHETERM05</v>
+      </c>
+      <c r="AA67">
+        <v>8</v>
+      </c>
+      <c r="AB67">
+        <v>586</v>
+      </c>
+      <c r="AC67">
+        <v>1966</v>
+      </c>
+      <c r="AD67">
+        <v>49351</v>
+      </c>
+      <c r="AE67">
+        <v>49152</v>
+      </c>
+      <c r="AF67">
+        <v>198.08500000000001</v>
+      </c>
+      <c r="AG67">
+        <v>170.256</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -4202,8 +6367,41 @@
       <c r="K68">
         <v>237.56700000000001</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="W68" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X68" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y68" t="str">
+        <v>CHETMTPROD</v>
+      </c>
+      <c r="Z68" t="str">
+        <v>CHETMTPROD</v>
+      </c>
+      <c r="AA68">
+        <v>4</v>
+      </c>
+      <c r="AB68">
+        <v>323</v>
+      </c>
+      <c r="AC68">
+        <v>1966</v>
+      </c>
+      <c r="AD68">
+        <v>24646</v>
+      </c>
+      <c r="AE68">
+        <v>24576</v>
+      </c>
+      <c r="AF68">
+        <v>705.63499999999999</v>
+      </c>
+      <c r="AG68">
+        <v>705.63499999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -4237,8 +6435,41 @@
       <c r="K69">
         <v>2761.6640000000002</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="W69" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X69" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y69" t="str">
+        <v>CHEGPTERM03</v>
+      </c>
+      <c r="Z69" t="str">
+        <v>CHEGPTERM03</v>
+      </c>
+      <c r="AA69">
+        <v>2</v>
+      </c>
+      <c r="AB69">
+        <v>468</v>
+      </c>
+      <c r="AC69">
+        <v>1105</v>
+      </c>
+      <c r="AD69">
+        <v>12358</v>
+      </c>
+      <c r="AE69">
+        <v>12288</v>
+      </c>
+      <c r="AF69">
+        <v>112.17700000000001</v>
+      </c>
+      <c r="AG69">
+        <v>62.421999999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -4272,8 +6503,41 @@
       <c r="K70">
         <v>68.11</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="W70" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X70" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y70" t="str">
+        <v>SYSTEMSLINKINT</v>
+      </c>
+      <c r="Z70" t="str">
+        <v>SYSTEMSLINKINT</v>
+      </c>
+      <c r="AA70">
+        <v>2</v>
+      </c>
+      <c r="AB70">
+        <v>35</v>
+      </c>
+      <c r="AC70">
+        <v>491</v>
+      </c>
+      <c r="AD70">
+        <v>8250</v>
+      </c>
+      <c r="AE70">
+        <v>8192</v>
+      </c>
+      <c r="AF70">
+        <v>108.533</v>
+      </c>
+      <c r="AG70">
+        <v>108.533</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -4307,8 +6571,41 @@
       <c r="K71">
         <v>522.70100000000002</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="W71" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X71" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y71" t="str">
+        <v>FTP01</v>
+      </c>
+      <c r="Z71" t="str">
+        <v>FTP01</v>
+      </c>
+      <c r="AA71">
+        <v>2</v>
+      </c>
+      <c r="AB71">
+        <v>107</v>
+      </c>
+      <c r="AC71">
+        <v>901</v>
+      </c>
+      <c r="AD71">
+        <v>8198</v>
+      </c>
+      <c r="AE71">
+        <v>8192</v>
+      </c>
+      <c r="AF71">
+        <v>588.55799999999999</v>
+      </c>
+      <c r="AG71">
+        <v>237.56700000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -4342,8 +6639,41 @@
       <c r="K72">
         <v>51.646000000000001</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="W72" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X72" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y72" t="str">
+        <v>CHEFILE01</v>
+      </c>
+      <c r="Z72" t="str">
+        <v>CheFile01</v>
+      </c>
+      <c r="AA72">
+        <v>4</v>
+      </c>
+      <c r="AB72">
+        <v>215</v>
+      </c>
+      <c r="AC72">
+        <v>2211</v>
+      </c>
+      <c r="AD72">
+        <v>8259</v>
+      </c>
+      <c r="AE72">
+        <v>8192</v>
+      </c>
+      <c r="AF72">
+        <v>3046.0810000000001</v>
+      </c>
+      <c r="AG72">
+        <v>2761.6640000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>11</v>
       </c>
@@ -4377,8 +6707,41 @@
       <c r="K73">
         <v>40.765000000000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="W73" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X73" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y73" t="str">
+        <v>UBUNTUDOCKER</v>
+      </c>
+      <c r="Z73" t="str">
+        <v>ubuntudocker</v>
+      </c>
+      <c r="AA73">
+        <v>2</v>
+      </c>
+      <c r="AB73">
+        <v>71</v>
+      </c>
+      <c r="AC73">
+        <v>327</v>
+      </c>
+      <c r="AD73">
+        <v>7307</v>
+      </c>
+      <c r="AE73">
+        <v>8192</v>
+      </c>
+      <c r="AF73">
+        <v>68.11</v>
+      </c>
+      <c r="AG73">
+        <v>68.11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -4412,8 +6775,41 @@
       <c r="K74">
         <v>51.646000000000001</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="W74" t="str">
+        <v>2024-10-09</v>
+      </c>
+      <c r="X74" t="str">
+        <v>TSI</v>
+      </c>
+      <c r="Y74" t="str">
+        <v>CHEEDIPRD01</v>
+      </c>
+      <c r="Z74" t="str">
+        <v>CHEEDIPRD01</v>
+      </c>
+      <c r="AA74">
+        <v>4</v>
+      </c>
+      <c r="AB74">
+        <v>2340</v>
+      </c>
+      <c r="AC74">
+        <v>4587</v>
+      </c>
+      <c r="AD74">
+        <v>16475</v>
+      </c>
+      <c r="AE74">
+        <v>16384</v>
+      </c>
+      <c r="AF74">
+        <v>546.25599999999997</v>
+      </c>
+      <c r="AG74">
+        <v>522.70100000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -4448,7 +6844,7 @@
         <v>40.765000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -4483,7 +6879,7 @@
         <v>5.2110000000000003</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -4518,7 +6914,7 @@
         <v>47.051000000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -4553,7 +6949,7 @@
         <v>41.98</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -4588,7 +6984,7 @@
         <v>1423.45</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>11</v>
       </c>
